--- a/math/1.khao_sat_ve_do_thi_ham_so.xlsx
+++ b/math/1.khao_sat_ve_do_thi_ham_so.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sự đồng biến và nghịch biến" sheetId="1" r:id="rId1"/>
     <sheet name="lương giác" sheetId="2" r:id="rId2"/>
+    <sheet name="dao_ham_cong_thuc" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -945,6 +946,66 @@
         <a:xfrm>
           <a:off x="480060" y="1531620"/>
           <a:ext cx="6957060" cy="5189220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>349124</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="http://giasuttv.net/wp-content/uploads/2014/12/bang-cong-thuc-dao-ham-day-du.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="182880"/>
+          <a:ext cx="8273924" cy="10203180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1255,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -1531,4 +1592,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>